--- a/data/Telomere MDD.xlsx
+++ b/data/Telomere MDD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barbie\Desktop\telomere-mental-health\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6975A465-A680-4AB5-A6E9-1A43011350F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1B684F-DADD-432D-A658-318DC489B3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6A3540F5-F4A9-4278-9298-E2304291304E}"/>
   </bookViews>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>processed_food</t>
-  </si>
-  <si>
-    <t>level of physical activity</t>
   </si>
   <si>
     <t>bmi_asian</t>
@@ -244,6 +241,9 @@
   <si>
     <t>ace_abuse_emotional</t>
   </si>
+  <si>
+    <t>physical_activity_level</t>
+  </si>
 </sst>
 </file>
 
@@ -298,18 +298,18 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -648,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498DA48E-99C4-4F96-9E9A-66A0A3EA74AF}">
   <dimension ref="A1:BQ65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BJ7" sqref="BJ7"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -764,169 +764,169 @@
         <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AW1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AZ1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BB1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BN1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="BO1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BP1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="BG1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="BH1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="BI1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="BJ1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="BK1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BL1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="BN1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BO1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="BP1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="BQ1" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:69" x14ac:dyDescent="0.4">

--- a/data/Telomere MDD.xlsx
+++ b/data/Telomere MDD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barbie\Desktop\telomere-mental-health\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1B684F-DADD-432D-A658-318DC489B3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A0F148-559C-493D-B286-7B22954B7774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6A3540F5-F4A9-4278-9298-E2304291304E}"/>
   </bookViews>
@@ -125,42 +125,6 @@
     <t>other_disease_fh</t>
   </si>
   <si>
-    <t>breakup_separation</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>financial</t>
-  </si>
-  <si>
-    <t>dismissal</t>
-  </si>
-  <si>
-    <t>legal</t>
-  </si>
-  <si>
-    <t>unwanted_pregrancy</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>imprisonment</t>
-  </si>
-  <si>
-    <t>illness</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>promotion</t>
-  </si>
-  <si>
-    <t>work_stress</t>
-  </si>
-  <si>
     <t>others_pf</t>
   </si>
   <si>
@@ -243,6 +207,42 @@
   </si>
   <si>
     <t>physical_activity_level</t>
+  </si>
+  <si>
+    <t>breakup_separation_pf</t>
+  </si>
+  <si>
+    <t>death_pf</t>
+  </si>
+  <si>
+    <t>financial_pf</t>
+  </si>
+  <si>
+    <t>dismissal_pf</t>
+  </si>
+  <si>
+    <t>legal_pf</t>
+  </si>
+  <si>
+    <t>unwanted_pregrancy_pf</t>
+  </si>
+  <si>
+    <t>family_pf</t>
+  </si>
+  <si>
+    <t>imprisonment_pf</t>
+  </si>
+  <si>
+    <t>illness_pf</t>
+  </si>
+  <si>
+    <t>work_pf</t>
+  </si>
+  <si>
+    <t>promotion_pf</t>
+  </si>
+  <si>
+    <t>work_stress_pf</t>
   </si>
 </sst>
 </file>
@@ -648,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498DA48E-99C4-4F96-9E9A-66A0A3EA74AF}">
   <dimension ref="A1:BQ65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="BG1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -668,7 +668,7 @@
     <col min="12" max="12" width="22.08984375" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.6328125" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.90625" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.54296875" style="4" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.1796875" style="4" bestFit="1" customWidth="1"/>
@@ -684,18 +684,18 @@
     <col min="28" max="28" width="20.1796875" style="4" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="8.453125" style="4" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="17.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="5.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="21.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="6.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="7.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="23.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="25" style="4" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.7265625" style="4" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="10.1796875" style="4" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="17" style="4" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="19.36328125" style="4" bestFit="1" customWidth="1"/>
@@ -764,7 +764,7 @@
         <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>14</v>
@@ -812,121 +812,121 @@
         <v>28</v>
       </c>
       <c r="AE1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="BB1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BM1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BN1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BO1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="BP1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AX1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="BC1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="BI1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="BJ1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BK1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="BL1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BN1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="BO1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="BP1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="BQ1" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:69" x14ac:dyDescent="0.4">
